--- a/Kbo_Stats/Team/Team_2005.xlsx
+++ b/Kbo_Stats/Team/Team_2005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d0yxn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d0yxn\Desktop\Develop\R Projects\Kbo-RealWAR\Kbo_Stats\Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C52E110E-6DF8-4E36-9668-401889C3ACDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28E255D-254F-4E50-9BC8-1667366EB606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15192" yWindow="3396" windowWidth="13212" windowHeight="12072" xr2:uid="{FAB22FCA-8D16-46E5-A52C-336D75016986}"/>
+    <workbookView xWindow="16884" yWindow="1596" windowWidth="13212" windowHeight="12072" xr2:uid="{FAB22FCA-8D16-46E5-A52C-336D75016986}"/>
   </bookViews>
   <sheets>
     <sheet name="2010년" sheetId="2" r:id="rId1"/>
@@ -48,9 +48,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>2005</t>
-  </si>
-  <si>
     <t>경기</t>
   </si>
   <si>
@@ -94,6 +91,10 @@
   </si>
   <si>
     <t>KIA 타이거즈</t>
+  </si>
+  <si>
+    <t>Team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -139,11 +140,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -188,7 +186,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{601F5EF7-ED66-49F0-8567-C4FB0756619D}" name="_2010년" displayName="_2010년" ref="A1:H9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:H9" xr:uid="{601F5EF7-ED66-49F0-8567-C4FB0756619D}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{91025B6F-DC1B-4CE3-826D-C851FBCB7FFA}" uniqueName="1" name="2005" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{91025B6F-DC1B-4CE3-826D-C851FBCB7FFA}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{26748823-3CBA-4D93-A891-BA08AB903428}" uniqueName="2" name="경기" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{ED85F7AE-CF07-48AF-90E3-5F1F2B26CC4F}" uniqueName="3" name="승" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{0B9AFE73-3CAF-44C7-87F2-D3193D01EBE5}" uniqueName="4" name="패" queryTableFieldId="4"/>
@@ -500,7 +498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E387F7FF-A982-4593-844D-4EE26DB0B5D5}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -514,33 +514,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B2">
         <v>126</v>
@@ -565,8 +565,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
         <v>126</v>
@@ -591,8 +591,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
         <v>126</v>
@@ -617,8 +617,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
       <c r="B5">
         <v>126</v>
@@ -643,8 +643,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
         <v>126</v>
@@ -669,8 +669,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
       <c r="B7">
         <v>126</v>
@@ -695,8 +695,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
+      <c r="A8" t="s">
+        <v>13</v>
       </c>
       <c r="B8">
         <v>126</v>
@@ -721,8 +721,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
+      <c r="A9" t="s">
+        <v>14</v>
       </c>
       <c r="B9">
         <v>126</v>
